--- a/Code/Results/Cases/Case_0_86/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_86/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.018900444034106</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.020799566015124</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.020034255926759</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.019533218662279</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.023442267061301</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.024106256319276</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.023638782797044</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.022875737090913</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.022376184288709</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.025560604669879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.022592521921982</v>
+      </c>
+      <c r="D3">
+        <v>1.024171116629831</v>
+      </c>
+      <c r="E3">
+        <v>1.023234216762203</v>
+      </c>
+      <c r="F3">
+        <v>1.023800763765487</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.023860021095837</v>
+      </c>
+      <c r="J3">
+        <v>1.027420541701155</v>
+      </c>
+      <c r="K3">
+        <v>1.026809635134749</v>
+      </c>
+      <c r="L3">
+        <v>1.025875292844119</v>
+      </c>
+      <c r="M3">
+        <v>1.026440292664856</v>
+      </c>
+      <c r="N3">
+        <v>1.028879596717154</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.024940533617787</v>
+      </c>
+      <c r="D4">
+        <v>1.026315089843996</v>
+      </c>
+      <c r="E4">
+        <v>1.025269486089525</v>
+      </c>
+      <c r="F4">
+        <v>1.026487218269507</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.024114894964032</v>
+      </c>
+      <c r="J4">
+        <v>1.0295250161614</v>
+      </c>
+      <c r="K4">
+        <v>1.028823795968964</v>
+      </c>
+      <c r="L4">
+        <v>1.027780893513189</v>
+      </c>
+      <c r="M4">
+        <v>1.028995480272937</v>
+      </c>
+      <c r="N4">
+        <v>1.030987059772519</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.02591814363404</v>
+      </c>
+      <c r="D5">
+        <v>1.027207698661641</v>
+      </c>
+      <c r="E5">
+        <v>1.026116935392494</v>
+      </c>
+      <c r="F5">
+        <v>1.027599158511366</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.024218407369478</v>
+      </c>
+      <c r="J5">
+        <v>1.030400442418198</v>
+      </c>
+      <c r="K5">
+        <v>1.029661835989863</v>
+      </c>
+      <c r="L5">
+        <v>1.028573824023393</v>
+      </c>
+      <c r="M5">
+        <v>1.030052309969501</v>
+      </c>
+      <c r="N5">
+        <v>1.031863729235015</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.026081740999898</v>
+      </c>
+      <c r="D6">
+        <v>1.027357068682133</v>
+      </c>
+      <c r="E6">
+        <v>1.026258754089824</v>
+      </c>
+      <c r="F6">
+        <v>1.027784848964557</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.024235575970812</v>
+      </c>
+      <c r="J6">
+        <v>1.030546893775717</v>
+      </c>
+      <c r="K6">
+        <v>1.029802043687006</v>
+      </c>
+      <c r="L6">
+        <v>1.028706488199231</v>
+      </c>
+      <c r="M6">
+        <v>1.030228751050133</v>
+      </c>
+      <c r="N6">
+        <v>1.032010388570259</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.024953633379627</v>
+      </c>
+      <c r="D7">
+        <v>1.026327050801304</v>
+      </c>
+      <c r="E7">
+        <v>1.025280841525138</v>
+      </c>
+      <c r="F7">
+        <v>1.02650214398446</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.024116292314409</v>
+      </c>
+      <c r="J7">
+        <v>1.029536749782837</v>
+      </c>
+      <c r="K7">
+        <v>1.028835027769132</v>
+      </c>
+      <c r="L7">
+        <v>1.027791520499983</v>
+      </c>
+      <c r="M7">
+        <v>1.029009669325914</v>
+      </c>
+      <c r="N7">
+        <v>1.030998810057045</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.020156890955673</v>
+      </c>
+      <c r="D8">
+        <v>1.021946974861528</v>
+      </c>
+      <c r="E8">
+        <v>1.021123182823372</v>
+      </c>
+      <c r="F8">
+        <v>1.020991277870624</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.023586683687283</v>
+      </c>
+      <c r="J8">
+        <v>1.025234823190327</v>
+      </c>
+      <c r="K8">
+        <v>1.0247183486717</v>
+      </c>
+      <c r="L8">
+        <v>1.023896929992363</v>
+      </c>
+      <c r="M8">
+        <v>1.023765405446557</v>
+      </c>
+      <c r="N8">
+        <v>1.026690774235335</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.011374840872372</v>
+      </c>
+      <c r="D9">
+        <v>1.013926283640109</v>
+      </c>
+      <c r="E9">
+        <v>1.013513065073625</v>
+      </c>
+      <c r="F9">
+        <v>1.010682708009225</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.0225322510127</v>
+      </c>
+      <c r="J9">
+        <v>1.017332729202522</v>
+      </c>
+      <c r="K9">
+        <v>1.017162591073511</v>
+      </c>
+      <c r="L9">
+        <v>1.016750786383374</v>
+      </c>
+      <c r="M9">
+        <v>1.013930147912599</v>
+      </c>
+      <c r="N9">
+        <v>1.018777458367684</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.005275351006911</v>
+      </c>
+      <c r="D10">
+        <v>1.008354665640698</v>
+      </c>
+      <c r="E10">
+        <v>1.008228946130815</v>
+      </c>
+      <c r="F10">
+        <v>1.003372485553406</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.021743323813266</v>
+      </c>
+      <c r="J10">
+        <v>1.011826719939123</v>
+      </c>
+      <c r="K10">
+        <v>1.011902035532634</v>
+      </c>
+      <c r="L10">
+        <v>1.011776792956975</v>
+      </c>
+      <c r="M10">
+        <v>1.006938857482567</v>
+      </c>
+      <c r="N10">
+        <v>1.013263629939583</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.002570485344827</v>
+      </c>
+      <c r="D11">
+        <v>1.005883687974777</v>
+      </c>
+      <c r="E11">
+        <v>1.005886033184355</v>
+      </c>
+      <c r="F11">
+        <v>1.000094371505258</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.021380198368133</v>
+      </c>
+      <c r="J11">
+        <v>1.009380806318802</v>
+      </c>
+      <c r="K11">
+        <v>1.009566150045965</v>
+      </c>
+      <c r="L11">
+        <v>1.00956848597351</v>
+      </c>
+      <c r="M11">
+        <v>1.003799894601785</v>
+      </c>
+      <c r="N11">
+        <v>1.010814242841371</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.001555677246332</v>
+      </c>
+      <c r="D12">
+        <v>1.004956601003034</v>
+      </c>
+      <c r="E12">
+        <v>1.005007080670379</v>
+      </c>
+      <c r="F12">
+        <v>0.998858971201223</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.02124197979427</v>
+      </c>
+      <c r="J12">
+        <v>1.008462512102108</v>
+      </c>
+      <c r="K12">
+        <v>1.008689314800949</v>
+      </c>
+      <c r="L12">
+        <v>1.008739591571317</v>
+      </c>
+      <c r="M12">
+        <v>1.002616361784719</v>
+      </c>
+      <c r="N12">
+        <v>1.00989464454156</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.001773822928333</v>
+      </c>
+      <c r="D13">
+        <v>1.005155891204747</v>
+      </c>
+      <c r="E13">
+        <v>1.005196019798545</v>
+      </c>
+      <c r="F13">
+        <v>0.9991247865234788</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.02127178096857</v>
+      </c>
+      <c r="J13">
+        <v>1.008659939879248</v>
+      </c>
+      <c r="K13">
+        <v>1.008877822350046</v>
+      </c>
+      <c r="L13">
+        <v>1.008917790182183</v>
+      </c>
+      <c r="M13">
+        <v>1.002871042804859</v>
+      </c>
+      <c r="N13">
+        <v>1.010092352688789</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.002486810201975</v>
+      </c>
+      <c r="D14">
+        <v>1.005807246377799</v>
+      </c>
+      <c r="E14">
+        <v>1.005813558689014</v>
+      </c>
+      <c r="F14">
+        <v>0.9999926202862193</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.021368841903884</v>
+      </c>
+      <c r="J14">
+        <v>1.009305102172562</v>
+      </c>
+      <c r="K14">
+        <v>1.009493860719719</v>
+      </c>
+      <c r="L14">
+        <v>1.009500148015603</v>
+      </c>
+      <c r="M14">
+        <v>1.003702426946146</v>
+      </c>
+      <c r="N14">
+        <v>1.01073843118656</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.002924750464514</v>
+      </c>
+      <c r="D15">
+        <v>1.006207326434714</v>
+      </c>
+      <c r="E15">
+        <v>1.006192879237686</v>
+      </c>
+      <c r="F15">
+        <v>1.000524941795532</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.021428198785701</v>
+      </c>
+      <c r="J15">
+        <v>1.009701297605267</v>
+      </c>
+      <c r="K15">
+        <v>1.00987219091496</v>
+      </c>
+      <c r="L15">
+        <v>1.009857800587632</v>
+      </c>
+      <c r="M15">
+        <v>1.004212315266963</v>
+      </c>
+      <c r="N15">
+        <v>1.011135189262224</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.005453477163272</v>
+      </c>
+      <c r="D16">
+        <v>1.008517385278351</v>
+      </c>
+      <c r="E16">
+        <v>1.008383244239301</v>
+      </c>
+      <c r="F16">
+        <v>1.00358759894005</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.021766961174927</v>
+      </c>
+      <c r="J16">
+        <v>1.011987704467702</v>
+      </c>
+      <c r="K16">
+        <v>1.012055799015327</v>
+      </c>
+      <c r="L16">
+        <v>1.01192216540594</v>
+      </c>
+      <c r="M16">
+        <v>1.007144759909418</v>
+      </c>
+      <c r="N16">
+        <v>1.013424843084659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.007022256283151</v>
+      </c>
+      <c r="D17">
+        <v>1.00995045455594</v>
+      </c>
+      <c r="E17">
+        <v>1.00974220938116</v>
+      </c>
+      <c r="F17">
+        <v>1.005477976878906</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.021973626158895</v>
+      </c>
+      <c r="J17">
+        <v>1.013405032043668</v>
+      </c>
+      <c r="K17">
+        <v>1.013409664695873</v>
+      </c>
+      <c r="L17">
+        <v>1.013202187391725</v>
+      </c>
+      <c r="M17">
+        <v>1.00895375595016</v>
+      </c>
+      <c r="N17">
+        <v>1.014844183428353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.007931185342973</v>
+      </c>
+      <c r="D18">
+        <v>1.010780735997008</v>
+      </c>
+      <c r="E18">
+        <v>1.010529610117683</v>
+      </c>
+      <c r="F18">
+        <v>1.006569783696642</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.0220921020552</v>
+      </c>
+      <c r="J18">
+        <v>1.014225809932219</v>
+      </c>
+      <c r="K18">
+        <v>1.014193785747494</v>
+      </c>
+      <c r="L18">
+        <v>1.013943571946234</v>
+      </c>
+      <c r="M18">
+        <v>1.009998193933008</v>
+      </c>
+      <c r="N18">
+        <v>1.015666126915649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.008240085021149</v>
+      </c>
+      <c r="D19">
+        <v>1.011062903968093</v>
+      </c>
+      <c r="E19">
+        <v>1.010797214227624</v>
+      </c>
+      <c r="F19">
+        <v>1.006940250581276</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.022132151510302</v>
+      </c>
+      <c r="J19">
+        <v>1.014504683296059</v>
+      </c>
+      <c r="K19">
+        <v>1.01446022025468</v>
+      </c>
+      <c r="L19">
+        <v>1.014195490483471</v>
+      </c>
+      <c r="M19">
+        <v>1.010352525545261</v>
+      </c>
+      <c r="N19">
+        <v>1.015945396311653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.006854577114408</v>
+      </c>
+      <c r="D20">
+        <v>1.009797282732591</v>
+      </c>
+      <c r="E20">
+        <v>1.009596952555994</v>
+      </c>
+      <c r="F20">
+        <v>1.005276281997354</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.021951667628218</v>
+      </c>
+      <c r="J20">
+        <v>1.013253582530529</v>
+      </c>
+      <c r="K20">
+        <v>1.01326498667944</v>
+      </c>
+      <c r="L20">
+        <v>1.013065397233842</v>
+      </c>
+      <c r="M20">
+        <v>1.00876078209008</v>
+      </c>
+      <c r="N20">
+        <v>1.014692518839533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.002277136442861</v>
+      </c>
+      <c r="D21">
+        <v>1.005615698031529</v>
+      </c>
+      <c r="E21">
+        <v>1.005631952545939</v>
+      </c>
+      <c r="F21">
+        <v>0.9997375621648672</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.021340352901769</v>
+      </c>
+      <c r="J21">
+        <v>1.009115391874856</v>
+      </c>
+      <c r="K21">
+        <v>1.009312710187959</v>
+      </c>
+      <c r="L21">
+        <v>1.009328900080015</v>
+      </c>
+      <c r="M21">
+        <v>1.003458097156563</v>
+      </c>
+      <c r="N21">
+        <v>1.010548451478471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>0.9993403911762385</v>
+      </c>
+      <c r="D22">
+        <v>1.002932755638742</v>
+      </c>
+      <c r="E22">
+        <v>1.003088473074471</v>
+      </c>
+      <c r="F22">
+        <v>0.996151922243349</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.020936625981921</v>
+      </c>
+      <c r="J22">
+        <v>1.006456732751958</v>
+      </c>
+      <c r="K22">
+        <v>1.006774368981335</v>
+      </c>
+      <c r="L22">
+        <v>1.006929439649416</v>
+      </c>
+      <c r="M22">
+        <v>1.000021918703746</v>
+      </c>
+      <c r="N22">
+        <v>1.007886016754667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.000902967047654</v>
+      </c>
+      <c r="D23">
+        <v>1.004360303896791</v>
+      </c>
+      <c r="E23">
+        <v>1.004441767758025</v>
+      </c>
+      <c r="F23">
+        <v>0.9980628152779757</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.021152522716419</v>
+      </c>
+      <c r="J23">
+        <v>1.007871697616065</v>
+      </c>
+      <c r="K23">
+        <v>1.008125216702642</v>
+      </c>
+      <c r="L23">
+        <v>1.008206349909038</v>
+      </c>
+      <c r="M23">
+        <v>1.001853471237385</v>
+      </c>
+      <c r="N23">
+        <v>1.009302991031179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.006930362967115</v>
+      </c>
+      <c r="D24">
+        <v>1.009866511768774</v>
+      </c>
+      <c r="E24">
+        <v>1.009662604087331</v>
+      </c>
+      <c r="F24">
+        <v>1.005367452604973</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.021961596126917</v>
+      </c>
+      <c r="J24">
+        <v>1.013322034321825</v>
+      </c>
+      <c r="K24">
+        <v>1.013330377614128</v>
+      </c>
+      <c r="L24">
+        <v>1.013127222950652</v>
+      </c>
+      <c r="M24">
+        <v>1.00884801173653</v>
+      </c>
+      <c r="N24">
+        <v>1.014761067840224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.013686557592058</v>
+      </c>
+      <c r="D25">
+        <v>1.016037751882995</v>
+      </c>
+      <c r="E25">
+        <v>1.015516057721662</v>
+      </c>
+      <c r="F25">
+        <v>1.013422089013186</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.022819647954885</v>
+      </c>
+      <c r="J25">
+        <v>1.019415860939238</v>
+      </c>
+      <c r="K25">
+        <v>1.019153711591129</v>
+      </c>
+      <c r="L25">
+        <v>1.018633728553816</v>
+      </c>
+      <c r="M25">
+        <v>1.016546647370616</v>
+      </c>
+      <c r="N25">
+        <v>1.020863548390405</v>
       </c>
     </row>
   </sheetData>
